--- a/data-raw/tai.potato.xlsx
+++ b/data-raw/tai.potato.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D869B2F-C8CD-4A51-A111-FF2A66A38B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="15168" windowHeight="9312"/>
+    <workbookView xWindow="40965" yWindow="2955" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="potato" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -112,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,14 +173,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +221,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -271,7 +293,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -444,19 +466,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="6.109375" customWidth="1"/>
+    <col min="4" max="5" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11.72</v>
       </c>
@@ -496,7 +518,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>9.39</v>
       </c>
@@ -516,7 +538,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>19.32</v>
       </c>
@@ -536,7 +558,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10.43</v>
       </c>
@@ -556,7 +578,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.29</v>
       </c>
@@ -576,7 +598,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9.07</v>
       </c>
@@ -596,7 +618,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10.95</v>
       </c>
@@ -616,7 +638,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10.039999999999999</v>
       </c>
@@ -636,7 +658,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>18.13</v>
       </c>
@@ -656,7 +678,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.99</v>
       </c>
@@ -676,7 +698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10.25</v>
       </c>
@@ -696,7 +718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12.86</v>
       </c>
@@ -716,7 +738,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>17.29</v>
       </c>
@@ -736,7 +758,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10.18</v>
       </c>
@@ -756,7 +778,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>21.12</v>
       </c>
@@ -776,7 +798,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12.37</v>
       </c>
@@ -796,7 +818,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>15.96</v>
       </c>
@@ -816,7 +838,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17.850000000000001</v>
       </c>
@@ -836,7 +858,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5.2</v>
       </c>
@@ -856,7 +878,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>7.56</v>
       </c>
@@ -876,7 +898,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>16.059999999999999</v>
       </c>
@@ -896,7 +918,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>8.44</v>
       </c>
@@ -916,7 +938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>8.69</v>
       </c>
@@ -936,7 +958,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>11.93</v>
       </c>
@@ -956,7 +978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>16.45</v>
       </c>
@@ -976,7 +998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>10.83</v>
       </c>
@@ -996,7 +1018,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>23.95</v>
       </c>
@@ -1016,7 +1038,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>14.44</v>
       </c>
@@ -1036,7 +1058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>20.12</v>
       </c>
@@ -1056,7 +1078,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>6.32</v>
       </c>
@@ -1076,7 +1098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>18.43</v>
       </c>
@@ -1096,7 +1118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>9.8699999999999992</v>
       </c>
@@ -1116,7 +1138,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>20.190000000000001</v>
       </c>
@@ -1136,7 +1158,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>16.2</v>
       </c>
@@ -1156,7 +1178,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>20.89</v>
       </c>
@@ -1176,7 +1198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>22.37</v>
       </c>
@@ -1196,7 +1218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>10.85</v>
       </c>
@@ -1216,7 +1238,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>9.64</v>
       </c>
@@ -1236,7 +1258,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>24.05</v>
       </c>
@@ -1256,7 +1278,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>11.55</v>
       </c>
@@ -1276,7 +1298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>12.35</v>
       </c>
@@ -1296,7 +1318,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>15.25</v>
       </c>
@@ -1316,7 +1338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>14.77</v>
       </c>
@@ -1336,7 +1358,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>9.44</v>
       </c>
@@ -1356,7 +1378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>22.25</v>
       </c>
@@ -1376,7 +1398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>14.4</v>
       </c>
@@ -1396,7 +1418,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>15.7</v>
       </c>
@@ -1416,7 +1438,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>12.85</v>
       </c>
